--- a/Files/启东-Hmi环境安装进度.xlsx
+++ b/Files/启东-Hmi环境安装进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>看板</t>
   </si>
@@ -91,12 +91,15 @@
     <t>192.168.183.66</t>
   </si>
   <si>
-    <t>EL</t>
+    <t>EK_EL</t>
   </si>
   <si>
     <t>192.168.186.66</t>
   </si>
   <si>
+    <t>EK√，EL×</t>
+  </si>
+  <si>
     <t>EP</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>192.168.150.66</t>
   </si>
   <si>
+    <t>RC√，RF√</t>
+  </si>
+  <si>
     <t>RG</t>
   </si>
   <si>
@@ -127,12 +133,15 @@
     <t>192.168.191.66</t>
   </si>
   <si>
-    <t>SI_SG</t>
+    <t>SI_SG_BB</t>
   </si>
   <si>
     <t>192.168.120.66</t>
   </si>
   <si>
+    <t>SI√，SG√，BB√</t>
+  </si>
+  <si>
     <t>TA_RE</t>
   </si>
   <si>
@@ -148,18 +157,27 @@
     <t>192.168.221.66</t>
   </si>
   <si>
+    <t>TB√，TG√</t>
+  </si>
+  <si>
     <t>VA_VC</t>
   </si>
   <si>
     <t>192.168.139.66</t>
   </si>
   <si>
+    <t>VA√，VC√</t>
+  </si>
+  <si>
     <t>VB_VG</t>
   </si>
   <si>
     <t>192.168.140.66</t>
   </si>
   <si>
+    <t>VB√，VG√</t>
+  </si>
+  <si>
     <t>VD</t>
   </si>
   <si>
@@ -172,19 +190,34 @@
     <t>192.168.144.66</t>
   </si>
   <si>
+    <t>VE√，VF√</t>
+  </si>
+  <si>
     <t>VH_VI</t>
   </si>
   <si>
     <t>192.168.146.66</t>
   </si>
   <si>
+    <t>VH√，VK√</t>
+  </si>
+  <si>
     <t>VJ_VK</t>
   </si>
   <si>
     <t>192.168.149.66</t>
   </si>
   <si>
+    <t>VJ√，VK√</t>
+  </si>
+  <si>
     <t>EB</t>
+  </si>
+  <si>
+    <t>192.168.178.66</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
@@ -192,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -211,6 +244,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -219,7 +282,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,32 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,39 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,44 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -364,31 +397,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,31 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,115 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,8 +593,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -569,10 +604,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -593,35 +626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +664,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,145 +696,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1167,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1222,12 +1255,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:2">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
@@ -1298,28 +1340,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:2">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1328,15 +1388,15 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1350,10 +1410,10 @@
     </row>
     <row r="15" ht="14.25" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1367,10 +1427,10 @@
     </row>
     <row r="16" ht="14.25" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1384,10 +1444,10 @@
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1396,15 +1456,15 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1413,15 +1473,15 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1430,15 +1490,15 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1447,15 +1507,15 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:5">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1464,15 +1524,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1486,10 +1546,10 @@
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1498,15 +1558,15 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1515,15 +1575,15 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1532,12 +1592,21 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Files/启东-Hmi环境安装进度.xlsx
+++ b/Files/启东-Hmi环境安装进度.xlsx
@@ -97,7 +97,7 @@
     <t>192.168.186.66</t>
   </si>
   <si>
-    <t>EK√，EL×</t>
+    <t>EK×，EL√</t>
   </si>
   <si>
     <t>EP</t>
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -242,6 +242,142 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -251,142 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,13 +397,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,169 +553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,11 +593,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +605,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +635,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,41 +678,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Files/启东-Hmi环境安装进度.xlsx
+++ b/Files/启东-Hmi环境安装进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>看板</t>
   </si>
@@ -40,37 +40,52 @@
     <t>√</t>
   </si>
   <si>
+    <t>CA√</t>
+  </si>
+  <si>
     <t>CB</t>
   </si>
   <si>
     <t>192.168.131.66</t>
   </si>
   <si>
+    <t>CB√</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
     <t>192.168.132.66</t>
   </si>
   <si>
+    <t>CC×</t>
+  </si>
+  <si>
     <t>DA</t>
   </si>
   <si>
     <t>192.168.200.66</t>
   </si>
   <si>
+    <t>DA√</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
     <t>192.168.201.66</t>
   </si>
   <si>
+    <t>DB√</t>
+  </si>
+  <si>
     <t>DE_DF</t>
   </si>
   <si>
     <t>192.168.110.66</t>
   </si>
   <si>
-    <t>DE√，DF×</t>
+    <t>DE√，DF√</t>
   </si>
   <si>
     <t>DM</t>
@@ -79,18 +94,27 @@
     <t>192.168.202.66</t>
   </si>
   <si>
+    <t>DM√</t>
+  </si>
+  <si>
     <t>ED</t>
   </si>
   <si>
     <t>192.168.180.66</t>
   </si>
   <si>
+    <t>ED√</t>
+  </si>
+  <si>
     <t>EJ</t>
   </si>
   <si>
     <t>192.168.183.66</t>
   </si>
   <si>
+    <t>EJ√</t>
+  </si>
+  <si>
     <t>EK_EL</t>
   </si>
   <si>
@@ -106,6 +130,9 @@
     <t>182.168.184.66</t>
   </si>
   <si>
+    <t>EP√</t>
+  </si>
+  <si>
     <t>RC_RF</t>
   </si>
   <si>
@@ -121,18 +148,27 @@
     <t>192.168.152.66</t>
   </si>
   <si>
+    <t>RG√</t>
+  </si>
+  <si>
     <t>SA</t>
   </si>
   <si>
     <t>192.168.190.66</t>
   </si>
   <si>
+    <t>SA√</t>
+  </si>
+  <si>
     <t>SB</t>
   </si>
   <si>
     <t>192.168.191.66</t>
   </si>
   <si>
+    <t>SB√</t>
+  </si>
+  <si>
     <t>SI_SG_BB</t>
   </si>
   <si>
@@ -184,6 +220,9 @@
     <t>192.168.142.66</t>
   </si>
   <si>
+    <t>VD√</t>
+  </si>
+  <si>
     <t>VE_VF</t>
   </si>
   <si>
@@ -217,7 +256,7 @@
     <t>192.168.178.66</t>
   </si>
   <si>
-    <t>×</t>
+    <t>EB×</t>
   </si>
 </sst>
 </file>
@@ -225,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -244,15 +283,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,8 +314,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,106 +426,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,20 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,21 +656,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,7 +679,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +701,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -688,6 +718,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -696,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1206,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1210,15 +1249,15 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1227,23 +1266,26 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1252,15 +1294,15 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1269,15 +1311,15 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1286,15 +1328,15 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1303,15 +1345,15 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1320,15 +1362,15 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1337,15 +1379,15 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1354,15 +1396,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1371,15 +1413,15 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1388,15 +1430,15 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1405,15 +1447,15 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1422,15 +1464,15 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1439,15 +1481,15 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1456,15 +1498,15 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1473,15 +1515,15 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1490,15 +1532,15 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1507,15 +1549,15 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:5">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1524,15 +1566,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1541,15 +1583,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1558,15 +1600,15 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1575,15 +1617,15 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1592,21 +1634,24 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Files/启东-Hmi环境安装进度.xlsx
+++ b/Files/启东-Hmi环境安装进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>看板</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>EB×</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>192.168.33.66</t>
+  </si>
+  <si>
+    <t>CD×</t>
   </si>
 </sst>
 </file>
@@ -264,9 +273,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -283,6 +292,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -293,14 +376,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -308,7 +391,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,58 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -390,38 +428,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,13 +445,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,19 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,19 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,121 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,17 +639,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,25 +672,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -708,22 +722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1654,6 +1663,23 @@
         <v>80</v>
       </c>
     </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D25">
     <sortCondition ref="A2:A25"/>

--- a/Files/启东-Hmi环境安装进度.xlsx
+++ b/Files/启东-Hmi环境安装进度.xlsx
@@ -265,7 +265,7 @@
     <t>192.168.33.66</t>
   </si>
   <si>
-    <t>CD×</t>
+    <t>CD√</t>
   </si>
 </sst>
 </file>
@@ -273,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -294,6 +294,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -330,8 +352,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,22 +390,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,55 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,187 +445,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,15 +636,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,6 +664,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -689,26 +695,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +707,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,145 +744,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
